--- a/src/test/resources/global/UserData.xlsx
+++ b/src/test/resources/global/UserData.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Workspace\RestAssuredAutomation\src\test\resources\global\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Ultimate_Testing\TestAutomationFramework\src\test\resources\global\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACF48C1E-85AE-4959-BA31-6F6077D3B982}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,99 +24,76 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
-  <si>
-    <t>UserID</t>
-  </si>
-  <si>
-    <t>UserName</t>
-  </si>
-  <si>
-    <t>FirstName</t>
-  </si>
-  <si>
-    <t>LastName</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>Password</t>
-  </si>
-  <si>
-    <t>Phone</t>
-  </si>
-  <si>
-    <t>testuser1</t>
-  </si>
-  <si>
-    <t>testuser2</t>
-  </si>
-  <si>
-    <t>testuser3</t>
-  </si>
-  <si>
-    <t>john</t>
-  </si>
-  <si>
-    <t>kim</t>
-  </si>
-  <si>
-    <t>nim</t>
-  </si>
-  <si>
-    <t>candy</t>
-  </si>
-  <si>
-    <t>nandy</t>
-  </si>
-  <si>
-    <t>sandy</t>
-  </si>
-  <si>
-    <t>j@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">k@gmail.com </t>
-  </si>
-  <si>
-    <t>n@gmail.com</t>
-  </si>
-  <si>
-    <t>test@1</t>
-  </si>
-  <si>
-    <t>test@2</t>
-  </si>
-  <si>
-    <t>test@3</t>
-  </si>
-  <si>
-    <t>1010</t>
-  </si>
-  <si>
-    <t>1020</t>
-  </si>
-  <si>
-    <t>1030</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+  <si>
+    <t>first_name</t>
+  </si>
+  <si>
+    <t>last_name</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>contact_number</t>
+  </si>
+  <si>
+    <t>contact_country_code</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>shardul1</t>
+  </si>
+  <si>
+    <t>shardul2</t>
+  </si>
+  <si>
+    <t>shardul3</t>
+  </si>
+  <si>
+    <t>jadhav1</t>
+  </si>
+  <si>
+    <t>jadhav2</t>
+  </si>
+  <si>
+    <t>jadhav3</t>
+  </si>
+  <si>
+    <t>sharduljadhav1@gmail.com</t>
+  </si>
+  <si>
+    <t>sharduljadhav2@gmail.com</t>
+  </si>
+  <si>
+    <t>sharduljadhav3@gmail.com</t>
+  </si>
+  <si>
+    <t>4363543451</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>1234567890</t>
+  </si>
+  <si>
+    <t>4363543422</t>
+  </si>
+  <si>
+    <t>4363543433</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -161,9 +137,8 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -171,11 +146,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -453,24 +429,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -489,89 +463,69 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="B2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="2" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="D3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F3" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="2">
-        <v>1234567890</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="3" t="s">
+      <c r="E4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="2">
-        <v>1234567899</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="2">
-        <v>1234567898</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{36315470-7E26-4F4D-B62A-E598C24EE5BF}"/>
-    <hyperlink ref="E3" r:id="rId2" xr:uid="{3A94E850-C4B3-4A2C-A6E6-EEED3978E919}"/>
-    <hyperlink ref="E4" r:id="rId3" xr:uid="{53D707EB-4BE2-4CD7-9F85-B553D4752895}"/>
-    <hyperlink ref="F2" r:id="rId4" xr:uid="{DF82E444-3C31-491D-87A2-26C5AC427B20}"/>
-    <hyperlink ref="F3" r:id="rId5" xr:uid="{37C0DAA3-13CE-4864-931A-9C3C2DBCA122}"/>
-    <hyperlink ref="F4" r:id="rId6" xr:uid="{69FFDF5C-FE8F-4943-9CC2-C91289AF2D95}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" copies="0" r:id="rId7"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" copies="0" r:id="rId1"/>
 </worksheet>
 </file>